--- a/planilha/dezembro/Escala ASO1 - Eldorado - 1° Turno - Dezembro.xlsx
+++ b/planilha/dezembro/Escala ASO1 - Eldorado - 1° Turno - Dezembro.xlsx
@@ -28,12 +28,12 @@
     <t>Ps</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t>Igor Alves</t>
   </si>
   <si>
-    <t>25/11/19</t>
+    <t>29/11/19</t>
   </si>
 </sst>
 </file>
@@ -595,92 +595,98 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="U2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AG2" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AB2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="1" t="n"/>
-      <c r="AF2" s="1" t="n"/>
-      <c r="AG2" s="1" t="n"/>
       <c r="AH2" s="1" t="n"/>
       <c r="AI2" s="1" t="n"/>
       <c r="AJ2" s="1" t="n"/>
@@ -698,19 +704,19 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -719,19 +725,19 @@
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>3</v>
@@ -740,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>3</v>
@@ -761,23 +767,29 @@
         <v>4</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="1" t="n"/>
-      <c r="AF3" s="1" t="n"/>
-      <c r="AG3" s="1" t="n"/>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AH3" s="1" t="n"/>
       <c r="AI3" s="1" t="n"/>
       <c r="AJ3" s="1" t="n"/>
@@ -832,81 +844,87 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-      <c r="AG4" s="3" t="n"/>
+      <c r="AG4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH4" s="3" t="n"/>
       <c r="AI4" s="3" t="n"/>
       <c r="AJ4" s="3" t="n"/>
@@ -968,20 +986,20 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>19</v>
@@ -990,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>7</v>
@@ -998,20 +1016,20 @@
       <c r="O5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>9</v>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>19</v>
@@ -1020,32 +1038,38 @@
         <v>10</v>
       </c>
       <c r="W5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="Y5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="5" t="n"/>
-      <c r="AF5" s="5" t="n"/>
-      <c r="AG5" s="5" t="n"/>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
       <c r="AJ5" s="5" t="n"/>
@@ -1098,8 +1122,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -1108,28 +1132,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>19</v>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>19</v>
@@ -1138,53 +1162,59 @@
         <v>13</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-      <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
       <c r="AI6" s="3" t="n"/>
       <c r="AJ6" s="3" t="n"/>
@@ -1249,62 +1279,62 @@
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>10</v>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>19</v>
+      <c r="U7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="Y7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>9</v>
@@ -1312,18 +1342,24 @@
       <c r="AA7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>7</v>
+      <c r="AB7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="5" t="n"/>
-      <c r="AF7" s="5" t="n"/>
-      <c r="AG7" s="5" t="n"/>
+      <c r="AE7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH7" s="5" t="n"/>
       <c r="AI7" s="5" t="n"/>
       <c r="AJ7" s="5" t="n"/>
@@ -1385,84 +1421,90 @@
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="X8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="Z8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-      <c r="AG8" s="3" t="n"/>
+      <c r="AD8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="AH8" s="3" t="n"/>
       <c r="AI8" s="3" t="n"/>
       <c r="AJ8" s="3" t="n"/>
@@ -1527,29 +1569,29 @@
       <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
+      <c r="K9" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>10</v>
@@ -1557,51 +1599,57 @@
       <c r="P9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="AA9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="5" t="s">
+      <c r="AE9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="5" t="n"/>
-      <c r="AF9" s="5" t="n"/>
-      <c r="AG9" s="5" t="n"/>
+      <c r="AG9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH9" s="5" t="n"/>
       <c r="AI9" s="5" t="n"/>
       <c r="AJ9" s="5" t="n"/>
@@ -1654,8 +1702,8 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -1664,83 +1712,89 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="M10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-      <c r="AG10" s="3" t="n"/>
       <c r="AH10" s="3" t="n"/>
       <c r="AI10" s="3" t="n"/>
       <c r="AJ10" s="3" t="n"/>
@@ -1802,26 +1856,26 @@
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>16</v>
@@ -1832,54 +1886,60 @@
       <c r="O11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>10</v>
+      <c r="P11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>14</v>
+      <c r="AA11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AB11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AC11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="5" t="n"/>
-      <c r="AF11" s="5" t="n"/>
-      <c r="AG11" s="5" t="n"/>
       <c r="AH11" s="5" t="n"/>
       <c r="AI11" s="5" t="n"/>
       <c r="AJ11" s="5" t="n"/>
@@ -1932,20 +1992,20 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>19</v>
@@ -1954,31 +2014,31 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>19</v>
@@ -1987,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>7</v>
@@ -1995,30 +2055,36 @@
       <c r="W12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>10</v>
+      <c r="X12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-      <c r="AG12" s="3" t="n"/>
+      <c r="AG12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AH12" s="3" t="n"/>
       <c r="AI12" s="3" t="n"/>
       <c r="AJ12" s="3" t="n"/>
@@ -2071,71 +2137,77 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s"/>
-      <c r="D13" s="5" t="s"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="5" t="s"/>
       <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="5" t="s"/>
-      <c r="J13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="J13" s="5" t="s"/>
+      <c r="K13" s="5" t="s"/>
       <c r="L13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="5" t="s"/>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O13" s="5" t="s"/>
       <c r="P13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="T13" s="5" t="s"/>
-      <c r="U13" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="U13" s="5" t="s"/>
       <c r="V13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X13" s="5" t="s"/>
-      <c r="Y13" s="5" t="s"/>
+      <c r="X13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Z13" s="5" t="s"/>
       <c r="AA13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD13" s="5" t="s"/>
-      <c r="AE13" s="5" t="n"/>
-      <c r="AF13" s="5" t="n"/>
-      <c r="AG13" s="5" t="n"/>
+      <c r="AE13" s="5" t="s"/>
+      <c r="AF13" s="5" t="s"/>
+      <c r="AG13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="AH13" s="5" t="n"/>
       <c r="AI13" s="5" t="n"/>
       <c r="AJ13" s="5" t="n"/>
@@ -2188,73 +2260,77 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s"/>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="3" t="s"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="3" t="s"/>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="I14" s="3" t="s"/>
+      <c r="J14" s="3" t="s"/>
       <c r="K14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="3" t="s"/>
+      <c r="M14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="N14" s="3" t="s"/>
       <c r="O14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="3" t="s"/>
+      <c r="T14" s="3" t="s"/>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="3" t="s"/>
-      <c r="T14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="V14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W14" s="3" t="s"/>
-      <c r="X14" s="3" t="s"/>
+      <c r="W14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Y14" s="3" t="s"/>
       <c r="Z14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="3" t="s"/>
+      <c r="AD14" s="3" t="s"/>
+      <c r="AE14" s="3" t="s"/>
+      <c r="AF14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC14" s="3" t="s"/>
-      <c r="AD14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-      <c r="AG14" s="3" t="n"/>
+      <c r="AG14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH14" s="3" t="n"/>
       <c r="AI14" s="3" t="n"/>
       <c r="AJ14" s="3" t="n"/>
@@ -2307,75 +2383,79 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s"/>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F15" s="5" t="s"/>
       <c r="G15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="5" t="s"/>
-      <c r="J15" s="5" t="s"/>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="K15" s="5" t="s"/>
       <c r="L15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="5" t="s"/>
+      <c r="P15" s="5" t="s"/>
+      <c r="Q15" s="5" t="s"/>
+      <c r="R15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="5" t="s"/>
-      <c r="P15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15" s="5" t="s"/>
       <c r="U15" s="5" t="s"/>
       <c r="V15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="Z15" s="5" t="s"/>
-      <c r="AA15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="AA15" s="5" t="s"/>
       <c r="AB15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="5" t="s"/>
-      <c r="AE15" s="5" t="n"/>
-      <c r="AF15" s="5" t="n"/>
-      <c r="AG15" s="5" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="5" t="s"/>
+      <c r="AG15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH15" s="5" t="n"/>
       <c r="AI15" s="5" t="n"/>
       <c r="AJ15" s="5" t="n"/>
@@ -2428,71 +2508,77 @@
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s"/>
-      <c r="D16" s="3" t="s"/>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="3" t="s"/>
       <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="3" t="s"/>
-      <c r="J16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="J16" s="3" t="s"/>
+      <c r="K16" s="3" t="s"/>
       <c r="L16" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="3" t="s"/>
+      <c r="N16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O16" s="3" t="s"/>
       <c r="P16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>19</v>
+      <c r="Q16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="T16" s="3" t="s"/>
-      <c r="U16" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="U16" s="3" t="s"/>
       <c r="V16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="3" t="s"/>
-      <c r="Y16" s="3" t="s"/>
+      <c r="X16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Z16" s="3" t="s"/>
       <c r="AA16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD16" s="3" t="s"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-      <c r="AG16" s="3" t="n"/>
+      <c r="AE16" s="3" t="s"/>
+      <c r="AF16" s="3" t="s"/>
+      <c r="AG16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="AH16" s="3" t="n"/>
       <c r="AI16" s="3" t="n"/>
       <c r="AJ16" s="3" t="n"/>
@@ -2545,73 +2631,77 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="5" t="s"/>
       <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="5" t="s"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="5" t="s"/>
+      <c r="J17" s="5" t="s"/>
+      <c r="K17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="L17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="5" t="s"/>
+      <c r="M17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="N17" s="5" t="s"/>
       <c r="O17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>19</v>
+      <c r="P17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5" t="s"/>
-      <c r="T17" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="T17" s="5" t="s"/>
       <c r="U17" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="5" t="s"/>
-      <c r="X17" s="5" t="s"/>
+      <c r="W17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Y17" s="5" t="s"/>
       <c r="Z17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="AB17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AC17" s="5" t="s"/>
-      <c r="AD17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE17" s="5" t="n"/>
-      <c r="AF17" s="5" t="n"/>
-      <c r="AG17" s="5" t="n"/>
+      <c r="AD17" s="5" t="s"/>
+      <c r="AE17" s="5" t="s"/>
+      <c r="AF17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH17" s="5" t="n"/>
       <c r="AI17" s="5" t="n"/>
       <c r="AJ17" s="5" t="n"/>
@@ -2664,71 +2754,77 @@
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s"/>
-      <c r="D18" s="3" t="s"/>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="3" t="s"/>
       <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="3" t="s"/>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="J18" s="3" t="s"/>
+      <c r="K18" s="3" t="s"/>
       <c r="L18" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="3" t="s"/>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O18" s="3" t="s"/>
       <c r="P18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="T18" s="3" t="s"/>
-      <c r="U18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="U18" s="3" t="s"/>
       <c r="V18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X18" s="3" t="s"/>
-      <c r="Y18" s="3" t="s"/>
+      <c r="X18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Z18" s="3" t="s"/>
       <c r="AA18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD18" s="3" t="s"/>
-      <c r="AE18" s="3" t="n"/>
-      <c r="AF18" s="3" t="n"/>
-      <c r="AG18" s="3" t="n"/>
+      <c r="AE18" s="3" t="s"/>
+      <c r="AF18" s="3" t="s"/>
+      <c r="AG18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="AH18" s="3" t="n"/>
       <c r="AI18" s="3" t="n"/>
       <c r="AJ18" s="3" t="n"/>
@@ -2781,75 +2877,79 @@
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s"/>
-      <c r="F19" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="5" t="s"/>
       <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="5" t="s"/>
-      <c r="J19" s="5" t="s"/>
+      <c r="J19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="K19" s="5" t="s"/>
       <c r="L19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>13</v>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="5" t="s"/>
+      <c r="P19" s="5" t="s"/>
+      <c r="Q19" s="5" t="s"/>
+      <c r="R19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="5" t="s"/>
-      <c r="P19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="5" t="s"/>
       <c r="U19" s="5" t="s"/>
       <c r="V19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="Z19" s="5" t="s"/>
+      <c r="AA19" s="5" t="s"/>
+      <c r="AB19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z19" s="5" t="s"/>
-      <c r="AA19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="5" t="s"/>
-      <c r="AE19" s="5" t="n"/>
-      <c r="AF19" s="5" t="n"/>
-      <c r="AG19" s="5" t="n"/>
+      <c r="AE19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="5" t="s"/>
+      <c r="AG19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH19" s="5" t="n"/>
       <c r="AI19" s="5" t="n"/>
       <c r="AJ19" s="5" t="n"/>
@@ -2902,73 +3002,77 @@
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s"/>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="3" t="s"/>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>19</v>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="3" t="s"/>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="3" t="s"/>
+      <c r="J20" s="3" t="s"/>
+      <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="3" t="s"/>
+      <c r="M20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="N20" s="3" t="s"/>
       <c r="O20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>19</v>
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S20" s="3" t="s"/>
-      <c r="T20" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="T20" s="3" t="s"/>
       <c r="U20" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="3" t="s"/>
-      <c r="X20" s="3" t="s"/>
+      <c r="W20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Y20" s="3" t="s"/>
       <c r="Z20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AC20" s="3" t="s"/>
-      <c r="AD20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE20" s="3" t="n"/>
-      <c r="AF20" s="3" t="n"/>
-      <c r="AG20" s="3" t="n"/>
+      <c r="AD20" s="3" t="s"/>
+      <c r="AE20" s="3" t="s"/>
+      <c r="AF20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AH20" s="3" t="n"/>
       <c r="AI20" s="3" t="n"/>
       <c r="AJ20" s="3" t="n"/>
@@ -3021,34 +3125,34 @@
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s"/>
-      <c r="D21" s="5" t="s"/>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="5" t="s"/>
       <c r="F21" s="5" t="s"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="5" t="s"/>
+      <c r="H21" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I21" s="5" t="s"/>
       <c r="J21" s="5" t="s"/>
       <c r="K21" s="5" t="s"/>
       <c r="L21" s="5" t="s"/>
       <c r="M21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="5" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O21" s="5" t="s"/>
       <c r="P21" s="5" t="s"/>
-      <c r="Q21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21" s="5" t="s">
+      <c r="Q21" s="5" t="s"/>
+      <c r="R21" s="5" t="s"/>
+      <c r="S21" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="T21" s="5" t="s"/>
       <c r="U21" s="5" t="s"/>
@@ -3056,20 +3160,22 @@
       <c r="W21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X21" s="5" t="s"/>
-      <c r="Y21" s="5" t="s"/>
+      <c r="X21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="Z21" s="5" t="s"/>
       <c r="AA21" s="5" t="s"/>
-      <c r="AB21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB21" s="5" t="s"/>
       <c r="AC21" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="5" t="s"/>
-      <c r="AE21" s="5" t="n"/>
-      <c r="AF21" s="5" t="n"/>
-      <c r="AG21" s="5" t="n"/>
+      <c r="AE21" s="5" t="s"/>
+      <c r="AF21" s="5" t="s"/>
+      <c r="AG21" s="5" t="s"/>
       <c r="AH21" s="5" t="n"/>
       <c r="AI21" s="5" t="n"/>
       <c r="AJ21" s="5" t="n"/>

--- a/planilha/dezembro/Escala ASO1 - Eldorado - 1° Turno - Dezembro.xlsx
+++ b/planilha/dezembro/Escala ASO1 - Eldorado - 1° Turno - Dezembro.xlsx
@@ -106,15 +106,15 @@
     <t>Vanessa Spindola</t>
   </si>
   <si>
-    <t>Silvana Soares</t>
+    <t>Silvana Souza</t>
+  </si>
+  <si>
+    <t>Lais Freitas</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Lais Freitas</t>
-  </si>
-  <si>
     <t>Rafaela Faria</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t>Igor Alves</t>
   </si>
   <si>
-    <t>29/11/19</t>
+    <t>01/12/19</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>19</v>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>11</v>
@@ -881,46 +881,46 @@
         <v>19</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="AG4" s="4" t="s">
         <v>19</v>
@@ -1005,64 +1005,64 @@
         <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>19</v>
@@ -1147,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>19</v>
@@ -1162,58 +1162,58 @@
         <v>13</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="AH6" s="3" t="n"/>
       <c r="AI6" s="3" t="n"/>
@@ -1292,19 +1292,19 @@
         <v>9</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>19</v>
@@ -1319,43 +1319,43 @@
         <v>7</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="AG7" s="4" t="s">
         <v>19</v>
@@ -1446,37 +1446,37 @@
         <v>14</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>7</v>
@@ -1488,22 +1488,22 @@
         <v>19</v>
       </c>
       <c r="AB8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AE8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AH8" s="3" t="n"/>
       <c r="AI8" s="3" t="n"/>
@@ -1582,19 +1582,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>19</v>
@@ -1606,28 +1606,28 @@
         <v>19</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="U9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>19</v>
@@ -1642,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="4" t="s">
         <v>19</v>
@@ -1727,73 +1727,73 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="Y10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AB10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="AH10" s="3" t="n"/>
       <c r="AI10" s="3" t="n"/>
@@ -1881,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>19</v>
@@ -1893,13 +1893,13 @@
         <v>19</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>19</v>
@@ -1908,37 +1908,37 @@
         <v>11</v>
       </c>
       <c r="W11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="AH11" s="5" t="n"/>
       <c r="AI11" s="5" t="n"/>
@@ -1990,25 +1990,25 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -2017,73 +2017,73 @@
         <v>13</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AA12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AC12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="AE12" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AH12" s="3" t="n"/>
       <c r="AI12" s="3" t="n"/>
@@ -2132,10 +2132,10 @@
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:48">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -2157,7 +2157,7 @@
       <c r="J13" s="5" t="s"/>
       <c r="K13" s="5" t="s"/>
       <c r="L13" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>19</v>
@@ -2167,13 +2167,13 @@
       </c>
       <c r="O13" s="5" t="s"/>
       <c r="P13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>19</v>
@@ -2181,7 +2181,7 @@
       <c r="T13" s="5" t="s"/>
       <c r="U13" s="5" t="s"/>
       <c r="V13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>19</v>
@@ -2194,10 +2194,10 @@
       </c>
       <c r="Z13" s="5" t="s"/>
       <c r="AA13" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>19</v>
@@ -2277,7 +2277,7 @@
       <c r="I14" s="3" t="s"/>
       <c r="J14" s="3" t="s"/>
       <c r="K14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>19</v>
@@ -2290,10 +2290,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>19</v>
@@ -2301,7 +2301,7 @@
       <c r="S14" s="3" t="s"/>
       <c r="T14" s="3" t="s"/>
       <c r="U14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>19</v>
@@ -2314,10 +2314,10 @@
       </c>
       <c r="Y14" s="3" t="s"/>
       <c r="Z14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="4" t="s">
         <v>19</v>
@@ -2326,7 +2326,7 @@
       <c r="AD14" s="3" t="s"/>
       <c r="AE14" s="3" t="s"/>
       <c r="AF14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>19</v>
@@ -2411,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O15" s="5" t="s"/>
       <c r="P15" s="5" t="s"/>
@@ -2420,10 +2420,10 @@
         <v>19</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="5" t="s"/>
       <c r="V15" s="4" t="s">
@@ -2436,7 +2436,7 @@
         <v>19</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z15" s="5" t="s"/>
       <c r="AA15" s="5" t="s"/>
@@ -2447,10 +2447,10 @@
         <v>15</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF15" s="5" t="s"/>
       <c r="AG15" s="4" t="s">
@@ -2506,7 +2506,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -2528,7 +2528,7 @@
       <c r="J16" s="3" t="s"/>
       <c r="K16" s="3" t="s"/>
       <c r="L16" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>19</v>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="O16" s="3" t="s"/>
       <c r="P16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>19</v>
@@ -2552,7 +2552,7 @@
       <c r="T16" s="3" t="s"/>
       <c r="U16" s="3" t="s"/>
       <c r="V16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>19</v>
@@ -2565,10 +2565,10 @@
       </c>
       <c r="Z16" s="3" t="s"/>
       <c r="AA16" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>19</v>
@@ -2577,7 +2577,7 @@
       <c r="AE16" s="3" t="s"/>
       <c r="AF16" s="3" t="s"/>
       <c r="AG16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH16" s="3" t="n"/>
       <c r="AI16" s="3" t="n"/>
@@ -2648,7 +2648,7 @@
       <c r="I17" s="5" t="s"/>
       <c r="J17" s="5" t="s"/>
       <c r="K17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>19</v>
@@ -2658,10 +2658,10 @@
       </c>
       <c r="N17" s="5" t="s"/>
       <c r="O17" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>13</v>
@@ -2672,7 +2672,7 @@
       <c r="S17" s="5" t="s"/>
       <c r="T17" s="5" t="s"/>
       <c r="U17" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>19</v>
@@ -2685,10 +2685,10 @@
       </c>
       <c r="Y17" s="5" t="s"/>
       <c r="Z17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB17" s="4" t="s">
         <v>19</v>
@@ -2752,7 +2752,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -2798,7 +2798,7 @@
       <c r="T18" s="3" t="s"/>
       <c r="U18" s="3" t="s"/>
       <c r="V18" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>19</v>
@@ -2811,10 +2811,10 @@
       </c>
       <c r="Z18" s="3" t="s"/>
       <c r="AA18" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>19</v>
@@ -2823,7 +2823,7 @@
       <c r="AE18" s="3" t="s"/>
       <c r="AF18" s="3" t="s"/>
       <c r="AG18" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH18" s="3" t="n"/>
       <c r="AI18" s="3" t="n"/>
@@ -2914,10 +2914,10 @@
         <v>19</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U19" s="5" t="s"/>
       <c r="V19" s="4" t="s">
@@ -2930,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="5" t="s"/>
       <c r="AA19" s="5" t="s"/>
@@ -2938,13 +2938,13 @@
         <v>19</v>
       </c>
       <c r="AC19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE19" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="AF19" s="5" t="s"/>
       <c r="AG19" s="4" t="s">
@@ -3019,7 +3019,7 @@
       <c r="I20" s="3" t="s"/>
       <c r="J20" s="3" t="s"/>
       <c r="K20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>19</v>
@@ -3029,13 +3029,13 @@
       </c>
       <c r="N20" s="3" t="s"/>
       <c r="O20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>19</v>
@@ -3043,7 +3043,7 @@
       <c r="S20" s="3" t="s"/>
       <c r="T20" s="3" t="s"/>
       <c r="U20" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>19</v>
@@ -3056,10 +3056,10 @@
       </c>
       <c r="Y20" s="3" t="s"/>
       <c r="Z20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>19</v>
@@ -3068,7 +3068,7 @@
       <c r="AD20" s="3" t="s"/>
       <c r="AE20" s="3" t="s"/>
       <c r="AF20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG20" s="4" t="s">
         <v>19</v>
@@ -3123,59 +3123,79 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="5" t="s"/>
-      <c r="F21" s="5" t="s"/>
-      <c r="G21" s="5" t="s"/>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="5" t="s"/>
       <c r="J21" s="5" t="s"/>
       <c r="K21" s="5" t="s"/>
-      <c r="L21" s="5" t="s"/>
-      <c r="M21" s="5" t="s">
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="5" t="s"/>
+      <c r="P21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="5" t="s"/>
-      <c r="P21" s="5" t="s"/>
-      <c r="Q21" s="5" t="s"/>
-      <c r="R21" s="5" t="s"/>
-      <c r="S21" s="5" t="s">
-        <v>8</v>
+      <c r="R21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T21" s="5" t="s"/>
       <c r="U21" s="5" t="s"/>
-      <c r="V21" s="5" t="s"/>
-      <c r="W21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>11</v>
+      <c r="V21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z21" s="5" t="s"/>
-      <c r="AA21" s="5" t="s"/>
-      <c r="AB21" s="5" t="s"/>
-      <c r="AC21" s="5" t="s">
-        <v>11</v>
+      <c r="AA21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AD21" s="5" t="s"/>
       <c r="AE21" s="5" t="s"/>
       <c r="AF21" s="5" t="s"/>
-      <c r="AG21" s="5" t="s"/>
+      <c r="AG21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="AH21" s="5" t="n"/>
       <c r="AI21" s="5" t="n"/>
       <c r="AJ21" s="5" t="n"/>
